--- a/assets/excel/vacency.xlsx
+++ b/assets/excel/vacency.xlsx
@@ -413,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,38 +456,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
+    <row r="12" spans="1:11">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="G12">
         <v>9297827636</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J12" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K12" t="s">
         <v>19</v>
       </c>
     </row>

--- a/assets/excel/vacency.xlsx
+++ b/assets/excel/vacency.xlsx
@@ -413,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,38 +456,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
+    <row r="2" spans="1:11">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G12">
+      <c r="G2">
         <v>9297827636</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
     </row>
